--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>216.0755377354468</v>
+        <v>110871.0147545804</v>
       </c>
       <c r="R2">
-        <v>216.0755377354468</v>
+        <v>997839.1327912236</v>
       </c>
       <c r="S2">
-        <v>0.001003532420422512</v>
+        <v>0.1484435821555515</v>
       </c>
       <c r="T2">
-        <v>0.001003532420422512</v>
+        <v>0.1484435821555515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>493.5809155455905</v>
+        <v>54280.49020108081</v>
       </c>
       <c r="R3">
-        <v>493.5809155455905</v>
+        <v>488524.4118097274</v>
       </c>
       <c r="S3">
-        <v>0.002292367086265355</v>
+        <v>0.07267535545195204</v>
       </c>
       <c r="T3">
-        <v>0.002292367086265355</v>
+        <v>0.07267535545195204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>583.4456661809346</v>
+        <v>79371.93010465214</v>
       </c>
       <c r="R4">
-        <v>583.4456661809346</v>
+        <v>714347.3709418693</v>
       </c>
       <c r="S4">
-        <v>0.002709731271313305</v>
+        <v>0.1062699178267228</v>
       </c>
       <c r="T4">
-        <v>0.002709731271313305</v>
+        <v>0.1062699178267228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>237.7632017864808</v>
+        <v>26755.45516537614</v>
       </c>
       <c r="R5">
-        <v>237.7632017864808</v>
+        <v>240799.0964883853</v>
       </c>
       <c r="S5">
-        <v>0.001104257723372315</v>
+        <v>0.03582248810243353</v>
       </c>
       <c r="T5">
-        <v>0.001104257723372315</v>
+        <v>0.03582248810243353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>621.2821333857422</v>
+        <v>2927.971342506353</v>
       </c>
       <c r="R6">
-        <v>621.2821333857422</v>
+        <v>26351.74208255718</v>
       </c>
       <c r="S6">
-        <v>0.002885457417420443</v>
+        <v>0.003920218061434186</v>
       </c>
       <c r="T6">
-        <v>0.002885457417420443</v>
+        <v>0.003920218061434185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>1419.193525664643</v>
+        <v>1433.483044398632</v>
       </c>
       <c r="R7">
-        <v>1419.193525664643</v>
+        <v>12901.34739958769</v>
       </c>
       <c r="S7">
-        <v>0.006591244565601556</v>
+        <v>0.001919269509175187</v>
       </c>
       <c r="T7">
-        <v>0.006591244565601556</v>
+        <v>0.001919269509175187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>1677.581701281551</v>
+        <v>2096.118063501694</v>
       </c>
       <c r="R8">
-        <v>1677.581701281551</v>
+        <v>18865.06257151524</v>
       </c>
       <c r="S8">
-        <v>0.007791292076777341</v>
+        <v>0.002806461857104041</v>
       </c>
       <c r="T8">
-        <v>0.007791292076777341</v>
+        <v>0.00280646185710404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>683.6406878569886</v>
+        <v>706.5796786774561</v>
       </c>
       <c r="R9">
-        <v>683.6406878569886</v>
+        <v>6359.217108097105</v>
       </c>
       <c r="S9">
-        <v>0.003175072946130582</v>
+        <v>0.0009460292107308142</v>
       </c>
       <c r="T9">
-        <v>0.003175072946130582</v>
+        <v>0.000946029210730814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H10">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>27746.55571877962</v>
+        <v>164912.5662563059</v>
       </c>
       <c r="R10">
-        <v>27746.55571877962</v>
+        <v>1484213.096306753</v>
       </c>
       <c r="S10">
-        <v>0.1288649724567463</v>
+        <v>0.2207990260731282</v>
       </c>
       <c r="T10">
-        <v>0.1288649724567463</v>
+        <v>0.2207990260731282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H11">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>63381.4013304909</v>
+        <v>80738.27913026015</v>
       </c>
       <c r="R11">
-        <v>63381.4013304909</v>
+        <v>726644.5121723415</v>
       </c>
       <c r="S11">
-        <v>0.2943659969729365</v>
+        <v>0.1080993025787697</v>
       </c>
       <c r="T11">
-        <v>0.2943659969729365</v>
+        <v>0.1080993025787697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H12">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>74921.0570304835</v>
+        <v>118059.9700584374</v>
       </c>
       <c r="R12">
-        <v>74921.0570304835</v>
+        <v>1062539.730525936</v>
       </c>
       <c r="S12">
-        <v>0.3479603035604529</v>
+        <v>0.1580687694023977</v>
       </c>
       <c r="T12">
-        <v>0.3479603035604529</v>
+        <v>0.1580687694023977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H13">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>30531.49836110203</v>
+        <v>39796.79253810951</v>
       </c>
       <c r="R13">
-        <v>30531.49836110203</v>
+        <v>358171.1328429856</v>
       </c>
       <c r="S13">
-        <v>0.1417992465531018</v>
+        <v>0.05328334421521329</v>
       </c>
       <c r="T13">
-        <v>0.1417992465531018</v>
+        <v>0.05328334421521329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H14">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>1806.934187203299</v>
+        <v>26540.51845201679</v>
       </c>
       <c r="R14">
-        <v>1806.934187203299</v>
+        <v>238864.6660681511</v>
       </c>
       <c r="S14">
-        <v>0.008392051490106458</v>
+        <v>0.03553471247650975</v>
       </c>
       <c r="T14">
-        <v>0.008392051490106458</v>
+        <v>0.03553471247650975</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H15">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>4127.576123598013</v>
+        <v>12993.76897519363</v>
       </c>
       <c r="R15">
-        <v>4127.576123598013</v>
+        <v>116943.9207767427</v>
       </c>
       <c r="S15">
-        <v>0.0191699463123121</v>
+        <v>0.01739716748014815</v>
       </c>
       <c r="T15">
-        <v>0.0191699463123121</v>
+        <v>0.01739716748014815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H16">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>4879.071141725946</v>
+        <v>19000.2065028243</v>
       </c>
       <c r="R16">
-        <v>4879.071141725946</v>
+        <v>171001.8585254187</v>
       </c>
       <c r="S16">
-        <v>0.02266015914427429</v>
+        <v>0.0254390989495108</v>
       </c>
       <c r="T16">
-        <v>0.02266015914427429</v>
+        <v>0.0254390989495108</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H17">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>1988.297529047083</v>
+        <v>6404.772726944279</v>
       </c>
       <c r="R17">
-        <v>1988.297529047083</v>
+        <v>57642.95454249852</v>
       </c>
       <c r="S17">
-        <v>0.00923436800276624</v>
+        <v>0.008575256649218238</v>
       </c>
       <c r="T17">
-        <v>0.00923436800276624</v>
+        <v>0.008575256649218238</v>
       </c>
     </row>
   </sheetData>
